--- a/final/FinalProject/StudentCredit.xlsx
+++ b/final/FinalProject/StudentCredit.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming learning\BYU PATHWAY\Applied technology\Fall 2023\CSE 210 Programming with classes\cse210-projects\final\FinalProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="StudentCredit" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>StudentID</t>
   </si>
@@ -26,13 +33,19 @@
     <t>Bank Account</t>
   </si>
   <si>
-    <t>Post Bank</t>
+    <t>Exim Bank</t>
+  </si>
+  <si>
+    <t>I&amp;M Bank</t>
+  </si>
+  <si>
+    <t>Wells Fargo inc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -58,26 +71,303 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName=""/>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D353"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -95,19 +385,1096 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>20231478</v>
       </c>
       <c r="B2" s="0">
-        <v>21.34</v>
+        <v>12.23</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0">
-        <v>1234567890765</v>
-      </c>
+      <c r="D2" s="1">
+        <v>9005687001466</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0">
+        <v>25.4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2004569999003</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0">
+        <v>30</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1234569001467</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112">
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113">
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114">
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115">
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116">
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117">
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118">
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120">
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121">
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122">
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123">
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124">
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125">
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127">
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128">
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129">
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131">
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132">
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133">
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134">
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135">
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137">
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138">
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139">
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140">
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141">
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142">
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143">
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144">
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145">
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146">
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147">
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148">
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149">
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150">
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151">
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152">
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153">
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154">
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155">
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156">
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157">
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158">
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159">
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160">
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161">
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162">
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163">
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164">
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165">
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166">
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167">
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168">
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169">
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170">
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171">
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172">
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173">
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174">
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175">
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176">
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177">
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178">
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179">
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180">
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181">
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182">
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183">
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184">
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185">
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186">
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187">
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188">
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189">
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190">
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191">
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192">
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193">
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194">
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195">
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196">
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197">
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198">
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199">
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200">
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201">
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202">
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203">
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204">
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205">
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206">
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207">
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208">
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209">
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210">
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211">
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212">
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213">
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214">
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215">
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216">
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217">
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218">
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219">
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220">
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221">
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222">
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223">
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224">
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225">
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226">
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227">
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228">
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229">
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230">
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231">
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232">
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233">
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234">
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235">
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236">
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237">
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238">
+      <c r="D238" s="1"/>
+    </row>
+    <row r="239">
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240">
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241">
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242">
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243">
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244">
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245">
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246">
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247">
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248">
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249">
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250">
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251">
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252">
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253">
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254">
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255">
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256">
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257">
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258">
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259">
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260">
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261">
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262">
+      <c r="D262" s="1"/>
+    </row>
+    <row r="263">
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264">
+      <c r="D264" s="1"/>
+    </row>
+    <row r="265">
+      <c r="D265" s="1"/>
+    </row>
+    <row r="266">
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267">
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268">
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269">
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270">
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271">
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272">
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273">
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274">
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275">
+      <c r="D275" s="1"/>
+    </row>
+    <row r="276">
+      <c r="D276" s="1"/>
+    </row>
+    <row r="277">
+      <c r="D277" s="1"/>
+    </row>
+    <row r="278">
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279">
+      <c r="D279" s="1"/>
+    </row>
+    <row r="280">
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281">
+      <c r="D281" s="1"/>
+    </row>
+    <row r="282">
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283">
+      <c r="D283" s="1"/>
+    </row>
+    <row r="284">
+      <c r="D284" s="1"/>
+    </row>
+    <row r="285">
+      <c r="D285" s="1"/>
+    </row>
+    <row r="286">
+      <c r="D286" s="1"/>
+    </row>
+    <row r="287">
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288">
+      <c r="D288" s="1"/>
+    </row>
+    <row r="289">
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290">
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291">
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292">
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293">
+      <c r="D293" s="1"/>
+    </row>
+    <row r="294">
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295">
+      <c r="D295" s="1"/>
+    </row>
+    <row r="296">
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297">
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298">
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299">
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300">
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301">
+      <c r="D301" s="1"/>
+    </row>
+    <row r="302">
+      <c r="D302" s="1"/>
+    </row>
+    <row r="303">
+      <c r="D303" s="1"/>
+    </row>
+    <row r="304">
+      <c r="D304" s="1"/>
+    </row>
+    <row r="305">
+      <c r="D305" s="1"/>
+    </row>
+    <row r="306">
+      <c r="D306" s="1"/>
+    </row>
+    <row r="307">
+      <c r="D307" s="1"/>
+    </row>
+    <row r="308">
+      <c r="D308" s="1"/>
+    </row>
+    <row r="309">
+      <c r="D309" s="1"/>
+    </row>
+    <row r="310">
+      <c r="D310" s="1"/>
+    </row>
+    <row r="311">
+      <c r="D311" s="1"/>
+    </row>
+    <row r="312">
+      <c r="D312" s="1"/>
+    </row>
+    <row r="313">
+      <c r="D313" s="1"/>
+    </row>
+    <row r="314">
+      <c r="D314" s="1"/>
+    </row>
+    <row r="315">
+      <c r="D315" s="1"/>
+    </row>
+    <row r="316">
+      <c r="D316" s="1"/>
+    </row>
+    <row r="317">
+      <c r="D317" s="1"/>
+    </row>
+    <row r="318">
+      <c r="D318" s="1"/>
+    </row>
+    <row r="319">
+      <c r="D319" s="1"/>
+    </row>
+    <row r="320">
+      <c r="D320" s="1"/>
+    </row>
+    <row r="321">
+      <c r="D321" s="1"/>
+    </row>
+    <row r="322">
+      <c r="D322" s="1"/>
+    </row>
+    <row r="323">
+      <c r="D323" s="1"/>
+    </row>
+    <row r="324">
+      <c r="D324" s="1"/>
+    </row>
+    <row r="325">
+      <c r="D325" s="1"/>
+    </row>
+    <row r="326">
+      <c r="D326" s="1"/>
+    </row>
+    <row r="327">
+      <c r="D327" s="1"/>
+    </row>
+    <row r="328">
+      <c r="D328" s="1"/>
+    </row>
+    <row r="329">
+      <c r="D329" s="1"/>
+    </row>
+    <row r="330">
+      <c r="D330" s="1"/>
+    </row>
+    <row r="331">
+      <c r="D331" s="1"/>
+    </row>
+    <row r="332">
+      <c r="D332" s="1"/>
+    </row>
+    <row r="333">
+      <c r="D333" s="1"/>
+    </row>
+    <row r="334">
+      <c r="D334" s="1"/>
+    </row>
+    <row r="335">
+      <c r="D335" s="1"/>
+    </row>
+    <row r="336">
+      <c r="D336" s="1"/>
+    </row>
+    <row r="337">
+      <c r="D337" s="1"/>
+    </row>
+    <row r="338">
+      <c r="D338" s="1"/>
+    </row>
+    <row r="339">
+      <c r="D339" s="1"/>
+    </row>
+    <row r="340">
+      <c r="D340" s="1"/>
+    </row>
+    <row r="341">
+      <c r="D341" s="1"/>
+    </row>
+    <row r="342">
+      <c r="D342" s="1"/>
+    </row>
+    <row r="343">
+      <c r="D343" s="1"/>
+    </row>
+    <row r="344">
+      <c r="D344" s="1"/>
+    </row>
+    <row r="345">
+      <c r="D345" s="1"/>
+    </row>
+    <row r="346">
+      <c r="D346" s="1"/>
+    </row>
+    <row r="347">
+      <c r="D347" s="1"/>
+    </row>
+    <row r="348">
+      <c r="D348" s="1"/>
+    </row>
+    <row r="349">
+      <c r="D349" s="1"/>
+    </row>
+    <row r="350">
+      <c r="D350" s="1"/>
+    </row>
+    <row r="351">
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352">
+      <c r="D352" s="1"/>
+    </row>
+    <row r="353">
+      <c r="D353" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/final/FinalProject/StudentCredit.xlsx
+++ b/final/FinalProject/StudentCredit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>StudentID</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Wells Fargo inc</t>
+  </si>
+  <si>
+    <t>Absa Bank</t>
+  </si>
+  <si>
+    <t>95019925</t>
   </si>
 </sst>
 </file>
@@ -356,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:F353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D171" sqref="D171"/>
@@ -426,10 +432,38 @@
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="1"/>
+      <c r="A5" s="0">
+        <v>20115817</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10082900142</v>
+      </c>
     </row>
     <row r="6">
-      <c r="D6" s="1"/>
+      <c r="A6" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" s="0">
+        <v>100</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>90030021345</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="0">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="D7" s="1"/>
